--- a/Luban/MiniTemplate/Datas/__enums__.xlsx
+++ b/Luban/MiniTemplate/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>HP</t>
+  </si>
+  <si>
+    <t>CharacterType</t>
+  </si>
+  <si>
+    <t>Melee</t>
+  </si>
+  <si>
+    <t>Ranged</t>
+  </si>
+  <si>
+    <t>Shoot</t>
   </si>
 </sst>
 </file>
@@ -1076,13 +1088,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
@@ -1204,6 +1216,24 @@
         <v>23</v>
       </c>
     </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8">
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8">
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/Luban/MiniTemplate/Datas/__enums__.xlsx
+++ b/Luban/MiniTemplate/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30480" windowHeight="13300"/>
+    <workbookView windowWidth="30240" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,19 +123,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="21"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Arial Unicode MS"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -623,137 +617,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,9 +756,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1091,7 +1082,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1129,13 +1120,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -1193,8 +1184,8 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" ht="29.2" spans="2:8">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="H4" t="s">

--- a/Luban/MiniTemplate/Datas/__enums__.xlsx
+++ b/Luban/MiniTemplate/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -89,28 +89,76 @@
     <t>BondType</t>
   </si>
   <si>
+    <t>NumBond</t>
+  </si>
+  <si>
+    <t>数字羁绊</t>
+  </si>
+  <si>
+    <t>OneAndTwo</t>
+  </si>
+  <si>
+    <t>万物伊始</t>
+  </si>
+  <si>
+    <t>SomeOdd</t>
+  </si>
+  <si>
+    <t>独特数</t>
+  </si>
+  <si>
+    <t>SomeSqrt</t>
+  </si>
+  <si>
+    <t>开方数</t>
+  </si>
+  <si>
+    <t>CharacterType</t>
+  </si>
+  <si>
+    <t>Melee</t>
+  </si>
+  <si>
+    <t>Ranged</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>BuffType</t>
+  </si>
+  <si>
     <t>Attack</t>
   </si>
   <si>
+    <t>永久加攻击</t>
+  </si>
+  <si>
     <t>Defend</t>
   </si>
   <si>
+    <t>永久加防御</t>
+  </si>
+  <si>
     <t>Move</t>
   </si>
   <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>CharacterType</t>
-  </si>
-  <si>
-    <t>Melee</t>
-  </si>
-  <si>
-    <t>Ranged</t>
-  </si>
-  <si>
-    <t>Shoot</t>
+    <t>永久加移动</t>
+  </si>
+  <si>
+    <t>MaxHP</t>
+  </si>
+  <si>
+    <t>永久加血量</t>
+  </si>
+  <si>
+    <t>AttackInternal</t>
+  </si>
+  <si>
+    <t>永久加攻击速度</t>
+  </si>
+  <si>
+    <t>parma1=1 代表攻速度增加1%</t>
   </si>
 </sst>
 </file>
@@ -1079,10 +1127,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1093,9 +1141,10 @@
     <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="14.4375" customWidth="1"/>
     <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="45.6696428571429" customWidth="1"/>
+    <col min="12" max="12" width="20.5267857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1184,45 +1233,103 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:9">
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="8:8">
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="8:9">
       <c r="H5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="8:8">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="8:9">
       <c r="H6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="8:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="8:9">
       <c r="H7" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="8:8">
       <c r="H9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="8:8">
       <c r="H10" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="8:9">
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="8:9">
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="8:9">
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="8:11">
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
